--- a/画面設計/【画面設計】03_料理検索結果.xlsx
+++ b/画面設計/【画面設計】03_料理検索結果.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -72,6 +72,11 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t>前画面（02_料理検索画面）で指定された条件をもとに料理を検索した結果を表示させる。
+検索結果の中で、ユーザが既にお気に入り登録している料理についてはお気に入りマークを★で表示させる。（未ログイン時は星マークを非表示）
+行をクリックすることで次画面（04_レシピ表示画面（HTML)）へ遷移する。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -425,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3078,7 +3083,9 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -3186,7 +3193,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3216,13 +3223,13 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3390,7 +3397,7 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -3420,10 +3427,10 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="6"/>
@@ -3620,14 +3627,14 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -3652,14 +3659,14 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -3684,30 +3691,30 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I55" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J55" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K55" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
@@ -3784,14 +3791,14 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="24"/>
       <c r="B58" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H58" s="48"/>
       <c r="I58" s="48"/>
@@ -3816,30 +3823,30 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="49"/>
       <c r="B59" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="49"/>
       <c r="G59" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59" s="50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I59" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J59" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K59" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
@@ -4000,30 +4007,30 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="49"/>
       <c r="B65" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="49"/>
       <c r="G65" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H65" s="50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I65" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J65" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K65" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L65" s="24"/>
       <c r="M65" s="24"/>
@@ -4100,14 +4107,14 @@
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="24"/>
       <c r="B68" s="48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68" s="48"/>
       <c r="D68" s="48"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
       <c r="G68" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H68" s="48"/>
       <c r="I68" s="48"/>
@@ -4132,30 +4139,30 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="49"/>
       <c r="B69" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="49"/>
       <c r="G69" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I69" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J69" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K69" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
@@ -29963,15 +29970,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B34:H36"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B34:H36"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -30087,7 +30094,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="63"/>
       <c r="B4" s="63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="63"/>
       <c r="D4" s="63"/>
@@ -30115,10 +30122,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="63"/>

--- a/画面設計/【画面設計】03_料理検索結果.xlsx
+++ b/画面設計/【画面設計】03_料理検索結果.xlsx
@@ -584,7 +584,7 @@
     <t xml:space="preserve">　　　※以下は、変数.レシピ情報.料理IDの件数だけ処理を繰り返す。</t>
   </si>
   <si>
-    <t xml:space="preserve">          ・API「レシピアレルギー情報取得」を変数.レシピ情報.現在行.料理IDをキーとして実行する。</t>
+    <t xml:space="preserve">          ・API「レシピアレルギー情報取得」を対象行.変数.料理IDをキーとして実行する。</t>
   </si>
   <si>
     <r>
@@ -619,13 +619,13 @@
     <t>2.2 料理詳細リンクをクリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　(1)  変数.料理IDを渡して、「04_レシピ表示」画面を開く。</t>
+    <t xml:space="preserve">　(1)  対象行.変数.料理IDを渡して、「04_レシピ表示」画面を開く。</t>
   </si>
   <si>
     <t>2.3 ⭐︎（★）リンクをクリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　(1)  API「ユーザお気に入りレシピ情報登録・削除」を変数.レシピ情報.現在行.料理IDをキーとして実行する。</t>
+    <t xml:space="preserve">　(1)  API「ユーザお気に入りレシピ情報登録・削除」を対象行.変数.料理IDをキーとして実行する。</t>
   </si>
   <si>
     <t xml:space="preserve">          　取得OK→ 画面を再描画せずに、ラベルの切り替えを行う。（⭐︎の場合は、★、★の場合は、⭐︎）</t>
@@ -681,6 +681,11 @@
       <name val="游ゴシック"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -694,11 +699,6 @@
       <sz val="10.0"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -951,9 +951,6 @@
     <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -961,6 +958,9 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -978,19 +978,19 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1008,7 +1008,7 @@
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1017,7 +1017,7 @@
     <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1050,13 +1050,13 @@
     <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1065,13 +1065,13 @@
     <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1086,7 +1086,7 @@
     <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1140,19 +1140,19 @@
     <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1161,10 +1161,10 @@
     <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1173,7 +1173,7 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2029,164 +2029,164 @@
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>1.0</v>
       </c>
       <c r="C5" s="11">
         <v>45657.0</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>2.0</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>45704.0</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" ht="18.75" customHeight="1"/>
     <row r="30" ht="18.75" customHeight="1"/>
@@ -3257,7 +3257,7 @@
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <v>45678.0</v>
       </c>
       <c r="M2" s="12" t="s">

--- a/画面設計/【画面設計】03_料理検索結果.xlsx
+++ b/画面設計/【画面設計】03_料理検索結果.xlsx
@@ -616,7 +616,7 @@
     <t xml:space="preserve">　　・検索結果なしのラベルを表示する。処理を止める。</t>
   </si>
   <si>
-    <t>2.2 料理詳細リンクをクリック時</t>
+    <t>2.2 行単位の料理画像または料理名リンクをクリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　(1)  対象行.変数.料理IDを渡して、「04_レシピ表示」画面を開く。</t>
